--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARIZ\Desktop\github\Dacon\신용카드 사용자 연체 예측 AI 경진대회\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="시트1" sheetId="1" r:id="rId4"/>
+    <sheet name="시트1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t xml:space="preserve">모델 </t>
   </si>
@@ -32,90 +40,250 @@
   </si>
   <si>
     <t>occyp_type = fillna('NAN')</t>
+  </si>
+  <si>
+    <t>occyp_type = fillna('NAN')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Randomforest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>XGBoost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1. occyp_type = fillna('NAN')
 2. children.drop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1. occyp_type = fillna('NAN')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. children.drop</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>['income_total', 'DAYS_EMPLOYED', 'family_size']</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규화</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">['income_total', 'DAYS_EMPLOYED', 'family_size'] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상치</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>occyp_type = fillna('NAN')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, get_dummies()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD5D5D5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FFD5D5D5"/>
-      <name val="Monospace"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808388"/>
+      <name val="NotoSansRegular"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF383838"/>
-        <bgColor rgb="FF383838"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -305,62 +473,158 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="29.71"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="12.75">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>0.7374568</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+        <v>0.73745680000000002</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.72961706670000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.73881259999999904</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.738812599999999</v>
+      <c r="D4" s="3">
+        <v>1.02</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.75585177923104097</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.75">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.75626472839575498</v>
+      </c>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.73735260000000002</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.81738888659999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.73205500000000001</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.80922620690000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0.75569339999999996</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.74876339940000003</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t xml:space="preserve">모델 </t>
   </si>
@@ -56,25 +56,6 @@
   <si>
     <t>1. occyp_type = fillna('NAN')
 2. children.drop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -183,6 +164,45 @@
         <family val="2"/>
       </rPr>
       <t>, get_dummies()</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGBM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -483,10 +503,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -533,7 +553,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>0.73881259999999904</v>
@@ -585,7 +605,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>0.73735260000000002</v>
@@ -599,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>0.73205500000000001</v>
@@ -613,13 +633,21 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>0.75569339999999996</v>
       </c>
       <c r="E9" s="5">
         <v>0.74876339940000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t xml:space="preserve">모델 </t>
   </si>
@@ -203,6 +203,241 @@
         <charset val="129"/>
       </rPr>
       <t>양수</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그변환</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상치제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이상치제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -211,7 +446,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -230,12 +465,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFD5D5D5"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -247,12 +476,6 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808388"/>
-      <name val="NotoSansRegular"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -275,15 +498,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -503,119 +724,119 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>0.73745680000000002</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>0.72961706670000004</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="12.75">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>0.73881259999999904</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>1.02</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>0.75585177923104097</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="12.75">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.75626472839575498</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>0.73735260000000002</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>0.81738888659999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -624,30 +845,84 @@
       <c r="D8" s="2">
         <v>0.73205500000000001</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="2">
         <v>0.80922620690000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.75569339999999996</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>0.74876339940000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2">
+        <v>0.72947115399999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2">
+        <v>0.73055071829999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
+        <v>0.72994765790000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
+        <v>0.76804756370000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.73779439999999996</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.7287727906</v>
       </c>
     </row>
   </sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t xml:space="preserve">모델 </t>
   </si>
@@ -414,20 +414,10 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이상치제거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , children </t>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> children </t>
     </r>
     <r>
       <rPr>
@@ -438,6 +428,377 @@
         <charset val="129"/>
       </rPr>
       <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> days_employed,children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지말아야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ays_employed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, tune</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, occupy_type -&gt; bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, occupy_type -&gt; bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -446,7 +807,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -477,6 +838,25 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFD5D5D5"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808388"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -498,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -506,6 +886,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -724,19 +1107,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -752,8 +1136,11 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -767,8 +1154,11 @@
       <c r="E2" s="2">
         <v>0.72961706670000004</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -780,8 +1170,11 @@
         <v>0.73881259999999904</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -794,7 +1187,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -807,7 +1200,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -820,7 +1213,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -835,7 +1228,7 @@
         <v>0.81738888659999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -849,7 +1242,7 @@
         <v>0.80922620690000002</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -863,7 +1256,7 @@
         <v>0.74876339940000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -875,7 +1268,7 @@
         <v>0.72947115399999995</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -887,7 +1280,7 @@
         <v>0.73055071829999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -899,7 +1292,7 @@
         <v>0.72994765790000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -911,7 +1304,7 @@
         <v>0.76804756370000005</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -923,6 +1316,47 @@
       </c>
       <c r="E14" s="2">
         <v>0.7287727906</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0.74819999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.74121720000000002</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.73165386430000001</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.74008940000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.73997299999999999</v>
       </c>
     </row>
   </sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t xml:space="preserve">모델 </t>
   </si>
@@ -414,6 +414,418 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> days_employed,children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하지말아야</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>될것</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상치제거</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ays_employed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, tune</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, occupy_type -&gt; bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , log </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occyp_type = fillna('NAN'), k = 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, occupy_type -&gt; bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> occupy_type -&gt; bool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>형식으로</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>                         </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occyp_type = fillna('NAN'), k = 7,max_depth=20,min_child_samples=25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occyp_type = fillna('NAN'), k = 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -433,12 +845,11 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -448,7 +859,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -457,7 +867,6 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -467,338 +876,19 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> days_employed,children </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
       <t>제거</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하지말아야</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>될것</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상치제거</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ays_employed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제거</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, children </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, tune</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, children </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, occupy_type -&gt; bool </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형식으로</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">occyp_type = fillna('NAN'), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>음수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> -&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>양수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, children </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제거</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, occupy_type -&gt; bool </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>형식으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , log </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변환</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -807,7 +897,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -846,16 +936,27 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFD5D5D5"/>
+      <sz val="10"/>
+      <color rgb="FF808388"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF808388"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -878,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -888,7 +989,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1107,15 +1211,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="63" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
@@ -1137,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1155,7 +1259,7 @@
         <v>0.72961706670000004</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1171,7 +1275,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1309,7 +1413,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>0.73779439999999996</v>
@@ -1323,40 +1427,121 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.74819999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.74121720000000002</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.73165386430000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.74008940000000001</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.73068475369999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2">
+        <v>0.73217406169999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.74121720000000002</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.73165386430000001</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="D19" s="2">
+        <v>0.73997299999999999</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6">
-        <v>0.74008940000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0.73997299999999999</v>
+      <c r="D20" s="2">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.73761968249999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.72804386619999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.73570000000000002</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.72804386619999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.72818391270000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -769,10 +769,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>                         </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>occyp_type = fillna('NAN'), k = 7,max_depth=20,min_child_samples=25</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -889,6 +885,63 @@
         <charset val="129"/>
       </rPr>
       <t>제거</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, k = 7</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -942,12 +995,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -958,21 +1005,44 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8.1"/>
+      <color rgb="FF808388"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD8D8D8"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD8D8D8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -989,10 +1059,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1213,8 +1283,8 @@
   </sheetPr>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1413,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>0.73779439999999996</v>
@@ -1505,7 +1575,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>0.73570000000000002</v>
@@ -1519,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2">
         <v>0.73570000000000002</v>
@@ -1528,20 +1598,23 @@
         <v>0.72804386619999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>33</v>
+      <c r="C23" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="E23" s="6">
         <v>0.72818391270000005</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.72655655649999995</v>
       </c>
     </row>
   </sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t xml:space="preserve">모델 </t>
   </si>
@@ -943,6 +943,67 @@
       </rPr>
       <t>, k = 7</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, k = 7 , div365</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rf div365</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1049,7 +1110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1063,6 +1124,7 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1281,10 +1343,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1610,11 +1672,41 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
       <c r="C24" s="7" t="s">
         <v>33</v>
       </c>
       <c r="E24" s="8">
         <v>0.72655655649999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.92064821480000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.83365148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
   <si>
     <t xml:space="preserve">모델 </t>
   </si>
@@ -1004,6 +1004,72 @@
   </si>
   <si>
     <t>rf div365</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>음수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>양수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">,  children </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, k = 7 , div365, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표준화</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1346,7 +1412,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1708,6 +1774,12 @@
       <c r="A27" t="s">
         <v>15</v>
       </c>
+      <c r="C27" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.76477649069999998</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
   <x:si>
     <x:r>
       <x:rPr>
@@ -250,6 +250,9 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>k=10,stand_all,drop_child,category,-1 _ div365</x:t>
+  </x:si>
+  <x:si>
     <x:t>k=10,stand,drop_child,category,div365.csv</x:t>
   </x:si>
   <x:si>
@@ -372,6 +375,9 @@
       </x:rPr>
       <x:t>로그변환</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand,drop_child,category,-1 _ div365</x:t>
   </x:si>
   <x:si>
     <x:t>1. occyp_type = fillna('NAN')
@@ -2026,10 +2032,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H30"/>
+  <x:dimension ref="A1:H33"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E30" activeCellId="0" sqref="E30:E30"/>
+      <x:selection activeCell="E32" activeCellId="0" sqref="E32:E33"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75"/>
@@ -2041,31 +2047,31 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="32.25" customHeight="1">
       <x:c r="A1" s="3" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C1" s="3" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="D1" s="3" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E1" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H1" s="3" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D1" s="3" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E1" s="3" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="H1" s="3" t="s">
-        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8" ht="12.9">
       <x:c r="A2" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="2"/>
       <x:c r="C2" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D2" s="2">
         <x:v>0.73745680000000002</x:v>
@@ -2074,12 +2080,12 @@
         <x:v>0.72961706670000004</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" ht="25.75">
       <x:c r="A3" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="C3" s="2" t="s">
@@ -2090,16 +2096,16 @@
       </x:c>
       <x:c r="E3" s="2"/>
       <x:c r="H3" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>17</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" customHeight="1">
       <x:c r="A4" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B4" s="2"/>
       <x:c r="C4" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D4" s="2">
         <x:v>1.02</x:v>
@@ -2108,11 +2114,11 @@
     </x:row>
     <x:row r="5" spans="1:5" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B5" s="2"/>
       <x:c r="C5" s="2" t="s">
-        <x:v>25</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D5" s="2">
         <x:v>0.75585177923104097</x:v>
@@ -2121,11 +2127,11 @@
     </x:row>
     <x:row r="6" spans="1:5" ht="12.9">
       <x:c r="A6" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B6" s="2"/>
       <x:c r="C6" s="2" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D6" s="2">
         <x:v>0.75626472839575498</x:v>
@@ -2134,7 +2140,7 @@
     </x:row>
     <x:row r="7" spans="1:5" customHeight="1">
       <x:c r="A7" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B7" s="2"/>
       <x:c r="C7" s="4" t="s">
@@ -2149,7 +2155,7 @@
     </x:row>
     <x:row r="8" spans="1:5" customHeight="1">
       <x:c r="A8" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>3</x:v>
@@ -2163,10 +2169,10 @@
     </x:row>
     <x:row r="9" spans="1:5" customHeight="1">
       <x:c r="A9" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="2">
         <x:v>0.75569339999999996</x:v>
@@ -2177,10 +2183,10 @@
     </x:row>
     <x:row r="10" spans="1:5" customHeight="1">
       <x:c r="A10" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D10" s="2"/>
       <x:c r="E10" s="2">
@@ -2189,10 +2195,10 @@
     </x:row>
     <x:row r="11" spans="1:5" customHeight="1">
       <x:c r="A11" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="2"/>
       <x:c r="E11" s="2">
@@ -2201,10 +2207,10 @@
     </x:row>
     <x:row r="12" spans="1:5" customHeight="1">
       <x:c r="A12" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="C12" s="4" t="s">
-        <x:v>27</x:v>
       </x:c>
       <x:c r="D12" s="2"/>
       <x:c r="E12" s="2">
@@ -2213,10 +2219,10 @@
     </x:row>
     <x:row r="13" spans="1:5" customHeight="1">
       <x:c r="A13" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D13" s="2"/>
       <x:c r="E13" s="2">
@@ -2225,10 +2231,10 @@
     </x:row>
     <x:row r="14" spans="1:5" customHeight="1">
       <x:c r="A14" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="2">
         <x:v>0.73779439999999996</x:v>
@@ -2239,10 +2245,10 @@
     </x:row>
     <x:row r="15" spans="1:5" customHeight="1">
       <x:c r="A15" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D15" s="2">
         <x:v>0.74819999999999998</x:v>
@@ -2251,7 +2257,7 @@
     </x:row>
     <x:row r="16" spans="1:5" customHeight="1">
       <x:c r="A16" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
         <x:v>6</x:v>
@@ -2265,10 +2271,10 @@
     </x:row>
     <x:row r="17" spans="1:5" customHeight="1">
       <x:c r="A17" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D17" s="2">
         <x:v>0.74008940000000001</x:v>
@@ -2279,7 +2285,7 @@
     </x:row>
     <x:row r="18" spans="1:5" customHeight="1">
       <x:c r="A18" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
         <x:v>4</x:v>
@@ -2291,10 +2297,10 @@
     </x:row>
     <x:row r="19" spans="1:5" customHeight="1">
       <x:c r="A19" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D19" s="2">
         <x:v>0.73997299999999999</x:v>
@@ -2303,7 +2309,7 @@
     </x:row>
     <x:row r="20" spans="1:5" customHeight="1">
       <x:c r="A20" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
         <x:v>1</x:v>
@@ -2317,7 +2323,7 @@
     </x:row>
     <x:row r="21" spans="1:5" customHeight="1">
       <x:c r="A21" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
         <x:v>2</x:v>
@@ -2331,10 +2337,10 @@
     </x:row>
     <x:row r="22" spans="1:5" customHeight="1">
       <x:c r="A22" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D22" s="2">
         <x:v>0.73570000000000002</x:v>
@@ -2345,10 +2351,10 @@
     </x:row>
     <x:row r="23" spans="1:5" customHeight="1">
       <x:c r="A23" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C23" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E23" s="6">
         <x:v>0.72818391270000005</x:v>
@@ -2356,10 +2362,10 @@
     </x:row>
     <x:row r="24" spans="1:5" customHeight="1">
       <x:c r="A24" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>21</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E24" s="8">
         <x:v>0.72655655649999995</x:v>
@@ -2367,7 +2373,7 @@
     </x:row>
     <x:row r="25" spans="1:5" customHeight="1">
       <x:c r="A25" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
         <x:v>0</x:v>
@@ -2378,10 +2384,10 @@
     </x:row>
     <x:row r="26" spans="1:5" customHeight="1">
       <x:c r="A26" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C26" s="9" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E26" s="6">
         <x:v>0.83365148</x:v>
@@ -2389,10 +2395,10 @@
     </x:row>
     <x:row r="27" spans="1:5" customHeight="1">
       <x:c r="A27" t="s">
-        <x:v>29</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="7" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E27" s="6">
         <x:v>0.76477649069999998</x:v>
@@ -2400,10 +2406,10 @@
     </x:row>
     <x:row r="28" spans="1:5" customHeight="1">
       <x:c r="A28" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C28" s="10" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="C28" s="10" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="E28" s="11">
         <x:v>0.72523449510000004</x:v>
@@ -2411,7 +2417,7 @@
     </x:row>
     <x:row r="29" spans="3:5" customHeight="1">
       <x:c r="C29" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E29" s="11">
         <x:v>0.73242001030000004</x:v>
@@ -2419,10 +2425,26 @@
     </x:row>
     <x:row r="30" spans="3:5" customHeight="1">
       <x:c r="C30" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E30" s="12">
         <x:v>0.72509021630000003</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="3:5" customHeight="1">
+      <x:c r="C32" s="10" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E32" s="12">
+        <x:v>0.72599566329999998</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="3:5" customHeight="1">
+      <x:c r="C33" s="10" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E33" s="12">
+        <x:v>0.72496076870000004</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="41">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <x:si>
     <x:r>
       <x:rPr>
@@ -73,10 +73,47 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>occyp_type = fillna('NAN'), k = 7</x:t>
+  </x:si>
+  <x:si>
     <x:t>occyp_type = fillna('NAN'), k = 10</x:t>
   </x:si>
   <x:si>
-    <x:t>occyp_type = fillna('NAN'), k = 7</x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">['income_total', 'DAYS_EMPLOYED', 'family_size']  </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>이상치</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>제거</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand_all,drop_child,category,-1 _ div365,dupli</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -89,27 +126,71 @@
     </x:r>
     <x:r>
       <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>이상치</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>정규화</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'),  occupy_type -&gt; bool </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>형식으로</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, children </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -119,67 +200,23 @@
       </x:rPr>
       <x:t>제거</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> occupy_type -&gt; bool </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>형식으로</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>['income_total', 'DAYS_EMPLOYED', 'family_size']</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>정규화</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>, tune</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -211,7 +248,7 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t xml:space="preserve">, children </x:t>
+      <x:t xml:space="preserve">,  children </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -227,163 +264,21 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>, tune</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>1. occyp_type = fillna('NAN')</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> 
+      <x:t>, k = 7</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>1. occyp_type = fillna('NAN') 
 2. children.drop</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>k=10,stand_all,drop_child,category,-1 _ div365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>k=10,stand,drop_child,category,div365.csv</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>occyp_type = fillna('NAN')</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>, get_dummies()</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>이상치제거</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>k=10,stand,drop_child,category,minus.csv</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>로그변환</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>k=10,stand,drop_child,category,-1 _ div365</x:t>
   </x:si>
   <x:si>
     <x:t>1. occyp_type = fillna('NAN')
 2. children.drop</x:t>
   </x:si>
   <x:si>
+    <x:t>k=10,stand_all,drop_child,category,-1 _ div365</x:t>
+  </x:si>
+  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -456,15 +351,39 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>d</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">ays_employed </x:t>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, children </x:t>
     </x:r>
     <x:r>
       <x:rPr>
@@ -474,6 +393,22 @@
       </x:rPr>
       <x:t>제거</x:t>
     </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, occupy_type -&gt; bool </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>형식으로</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -514,6 +449,56 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
+      <x:t xml:space="preserve">,  children </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>제거</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
       <x:t xml:space="preserve">, children </x:t>
     </x:r>
     <x:r>
@@ -524,6 +509,412 @@
       </x:rPr>
       <x:t>제거</x:t>
     </x:r>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand,drop_child,category,-1 _ div365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand,drop_child,category,minus.csv</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>로그변환</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand,drop_child,category,div365.csv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>occyp_type = fillna('NAN'), get_dummies()</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>이상치제거</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>public score</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Randomforest</x:t>
+  </x:si>
+  <x:si>
+    <x:t>occyp_type = fillna('NAN'), k = 7,max_depth=20,min_child_samples=25</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>이</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> days_employed,children </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>제거</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand,drop_child,category</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">days_employed </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>제거</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>이상치제거</x:t>
+  </x:si>
+  <x:si>
+    <x:t>XGBoost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LGBM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>catboost</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rf div365</x:t>
+  </x:si>
+  <x:si>
+    <x:t>valid 평균</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>하지말아야</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>될것</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="16"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>.</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>occyp_type = fillna('NAN')</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변수</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">모델 </x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">,  children </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>제거</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, children </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>제거</x:t>
+    </x:r>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -540,239 +931,6 @@
       </x:rPr>
       <x:t>형식으로</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>이</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> days_employed,children </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>제거</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>occyp_type = fillna('NAN'), k = 7,max_depth=20,min_child_samples=25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>k=10,stand,drop_child,category</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">,  children </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>제거</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>, k = 7</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>catboost</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, children </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>제거</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, occupy_type -&gt; bool </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>형식으로</x:t>
-    </x:r>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -789,230 +947,13 @@
       </x:rPr>
       <x:t>변환</x:t>
     </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">max_depth=20,min_child_samples=25,occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">,  children </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>제거</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>occyp_type = fillna('NAN')</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">,  children </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>제거</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, children </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>제거</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>이상치제거</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LGBM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>XGBoost</x:t>
-  </x:si>
-  <x:si>
-    <x:t>rf div365</x:t>
-  </x:si>
-  <x:si>
-    <x:t>valid 평균</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>하지말아야</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>될것</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="16"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>.</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>전처리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변수</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">모델 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Randomforest</x:t>
-  </x:si>
-  <x:si>
-    <x:t>public score</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="15">
+  <x:fonts count="16">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -1058,46 +999,16 @@
       <x:sz val="10"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff808388"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff808388"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="Arial"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff808388"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="Arial"/>
-          <x:sz val="8"/>
-          <x:color rgb="ff808388"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff808388"/>
+    </x:font>
+    <x:font>
+      <x:name val="Arial"/>
+      <x:sz val="8"/>
+      <x:color rgb="ff808388"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -1160,11 +1071,48 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="돋움"/>
-      <x:sz val="16"/>
-      <x:color rgb="ff000000"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="한컴바탕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="한컴바탕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="16"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -1271,7 +1219,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="13">
+  <x:cellXfs count="14">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1351,6 +1299,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1362,7 +1313,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1407,7 +1357,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1484,7 +1433,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1523,7 +1471,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1546,7 +1493,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1579,7 +1525,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1627,7 +1572,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1683,7 +1627,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1718,7 +1661,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1751,7 +1693,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1774,7 +1715,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1808,7 +1748,7 @@
       </x:fill>
     </x:dxf>
   </x:dxfs>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+  <x:tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <x:tableStyle name="PivotStyleLight16" pivot="1" table="0" count="11">
       <x:tableStyleElement type="headerRow" size="1" dxfId="0"/>
       <x:tableStyleElement type="totalRow" size="1" dxfId="1"/>
@@ -2032,13 +1972,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H33"/>
+  <x:dimension ref="A1:H34"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E32" activeCellId="0" sqref="E32:E33"/>
+      <x:selection activeCell="E35" activeCellId="0" sqref="E35:E35"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75"/>
+  <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.9"/>
   <x:cols>
     <x:col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
@@ -2047,31 +1987,31 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="32.25" customHeight="1">
       <x:c r="A1" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="C1" s="3" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="D1" s="3" t="s">
         <x:v>34</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>40</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
         <x:v>35</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:8" ht="12.9">
+    <x:row r="2" spans="1:8">
       <x:c r="A2" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B2" s="2"/>
       <x:c r="C2" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D2" s="2">
         <x:v>0.73745680000000002</x:v>
@@ -2080,65 +2020,65 @@
         <x:v>0.72961706670000004</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>30</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:8" ht="25.75">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:8">
       <x:c r="A3" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="C3" s="2" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D3" s="2">
         <x:v>0.73881259999999904</x:v>
       </x:c>
       <x:c r="E3" s="2"/>
       <x:c r="H3" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5" customHeight="1">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A4" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B4" s="2"/>
       <x:c r="C4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D4" s="2">
         <x:v>1.02</x:v>
       </x:c>
       <x:c r="E4" s="2"/>
     </x:row>
-    <x:row r="5" spans="1:5" customHeight="1">
+    <x:row r="5" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B5" s="2"/>
       <x:c r="C5" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D5" s="2">
         <x:v>0.75585177923104097</x:v>
       </x:c>
       <x:c r="E5" s="2"/>
     </x:row>
-    <x:row r="6" spans="1:5" ht="12.9">
+    <x:row r="6" spans="1:5">
       <x:c r="A6" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="B6" s="2"/>
       <x:c r="C6" s="2" t="s">
-        <x:v>15</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D6" s="2">
         <x:v>0.75626472839575498</x:v>
       </x:c>
       <x:c r="E6" s="2"/>
     </x:row>
-    <x:row r="7" spans="1:5" customHeight="1">
+    <x:row r="7" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A7" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -2153,7 +2093,7 @@
         <x:v>0.81738888659999998</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:5" customHeight="1">
+    <x:row r="8" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A8" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -2167,12 +2107,12 @@
         <x:v>0.80922620690000002</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:5" customHeight="1">
+    <x:row r="9" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A9" s="2" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>10</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D9" s="2">
         <x:v>0.75569339999999996</x:v>
@@ -2181,60 +2121,60 @@
         <x:v>0.74876339940000003</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:5" customHeight="1">
+    <x:row r="10" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A10" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D10" s="2"/>
       <x:c r="E10" s="2">
         <x:v>0.72947115399999995</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:5" customHeight="1">
+    <x:row r="11" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A11" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D11" s="2"/>
       <x:c r="E11" s="2">
         <x:v>0.73055071829999996</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:5" customHeight="1">
+    <x:row r="12" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A12" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D12" s="2"/>
       <x:c r="E12" s="2">
         <x:v>0.72994765790000005</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:5" customHeight="1">
+    <x:row r="13" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A13" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D13" s="2"/>
       <x:c r="E13" s="2">
         <x:v>0.76804756370000005</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:5" customHeight="1">
+    <x:row r="14" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A14" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D14" s="2">
         <x:v>0.73779439999999996</x:v>
@@ -2243,24 +2183,24 @@
         <x:v>0.7287727906</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:5" customHeight="1">
+    <x:row r="15" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A15" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D15" s="2">
         <x:v>0.74819999999999998</x:v>
       </x:c>
       <x:c r="E15" s="2"/>
     </x:row>
-    <x:row r="16" spans="1:5" customHeight="1">
+    <x:row r="16" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A16" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D16" s="2">
         <x:v>0.74121720000000002</x:v>
@@ -2269,12 +2209,12 @@
         <x:v>0.73165386430000001</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:5" customHeight="1">
+    <x:row r="17" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A17" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D17" s="2">
         <x:v>0.74008940000000001</x:v>
@@ -2283,36 +2223,36 @@
         <x:v>0.73068475369999997</x:v>
       </x:c>
     </x:row>
-    <x:row r="18" spans="1:5" customHeight="1">
+    <x:row r="18" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A18" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D18" s="2"/>
       <x:c r="E18" s="2">
         <x:v>0.73217406169999999</x:v>
       </x:c>
     </x:row>
-    <x:row r="19" spans="1:5" customHeight="1">
+    <x:row r="19" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A19" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D19" s="2">
         <x:v>0.73997299999999999</x:v>
       </x:c>
       <x:c r="E19" s="2"/>
     </x:row>
-    <x:row r="20" spans="1:5" customHeight="1">
+    <x:row r="20" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A20" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D20" s="2">
         <x:v>0.74199999999999999</x:v>
@@ -2321,12 +2261,12 @@
         <x:v>0.73761968249999998</x:v>
       </x:c>
     </x:row>
-    <x:row r="21" spans="1:5" customHeight="1">
+    <x:row r="21" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A21" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D21" s="2">
         <x:v>0.73570000000000002</x:v>
@@ -2335,12 +2275,12 @@
         <x:v>0.72804386619999995</x:v>
       </x:c>
     </x:row>
-    <x:row r="22" spans="1:5" customHeight="1">
+    <x:row r="22" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A22" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D22" s="2">
         <x:v>0.73570000000000002</x:v>
@@ -2349,29 +2289,29 @@
         <x:v>0.72804386619999995</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:5" customHeight="1">
+    <x:row r="23" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A23" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C23" s="7" t="s">
-        <x:v>26</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E23" s="6">
         <x:v>0.72818391270000005</x:v>
       </x:c>
     </x:row>
-    <x:row r="24" spans="1:5" customHeight="1">
+    <x:row r="24" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A24" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
-        <x:v>23</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E24" s="8">
         <x:v>0.72655655649999995</x:v>
       </x:c>
     </x:row>
-    <x:row r="25" spans="1:5" customHeight="1">
+    <x:row r="25" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A25" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -2382,7 +2322,7 @@
         <x:v>0.92064821480000003</x:v>
       </x:c>
     </x:row>
-    <x:row r="26" spans="1:5" customHeight="1">
+    <x:row r="26" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A26" t="s">
         <x:v>31</x:v>
       </x:c>
@@ -2393,62 +2333,70 @@
         <x:v>0.83365148</x:v>
       </x:c>
     </x:row>
-    <x:row r="27" spans="1:5" customHeight="1">
+    <x:row r="27" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A27" t="s">
         <x:v>31</x:v>
       </x:c>
       <x:c r="C27" s="7" t="s">
-        <x:v>16</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E27" s="6">
         <x:v>0.76477649069999998</x:v>
       </x:c>
     </x:row>
-    <x:row r="28" spans="1:5" customHeight="1">
+    <x:row r="28" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A28" t="s">
-        <x:v>24</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C28" s="10" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E28" s="11">
         <x:v>0.72523449510000004</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="3:5" customHeight="1">
+    <x:row r="29" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C29" s="10" t="s">
-        <x:v>12</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E29" s="11">
         <x:v>0.73242001030000004</x:v>
       </x:c>
     </x:row>
-    <x:row r="30" spans="3:5" customHeight="1">
+    <x:row r="30" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C30" s="10" t="s">
-        <x:v>9</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E30" s="12">
         <x:v>0.72509021630000003</x:v>
       </x:c>
     </x:row>
-    <x:row r="32" spans="3:5" customHeight="1">
+    <x:row r="32" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C32" s="10" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E32" s="12">
         <x:v>0.72599566329999998</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="3:5" customHeight="1">
+    <x:row r="33" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C33" s="10" t="s">
-        <x:v>14</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E33" s="12">
         <x:v>0.72496076870000004</x:v>
       </x:c>
     </x:row>
+    <x:row r="34" spans="3:5" ht="14.449999999999999">
+      <x:c r="C34" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E34">
+        <x:v>0.91203400000000001</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <x:si>
     <x:r>
       <x:rPr>
@@ -113,7 +113,7 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>k=10,stand_all,drop_child,category,-1 _ div365,dupli</x:t>
+    <x:t>k=9,stand,drop_child,category,-1 _ div365,randomforest</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -276,9 +276,6 @@
 2. children.drop</x:t>
   </x:si>
   <x:si>
-    <x:t>k=10,stand_all,drop_child,category,-1 _ div365</x:t>
-  </x:si>
-  <x:si>
     <x:r>
       <x:rPr>
         <x:rFont val="Arial"/>
@@ -511,10 +508,69 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>k=10,stand,drop_child,category,minus.csv</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>음수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve"> -&gt; </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>양수</x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="Arial"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t xml:space="preserve">, </x:t>
+    </x:r>
+    <x:r>
+      <x:rPr>
+        <x:rFont val="돋움"/>
+        <x:sz val="10"/>
+        <x:color rgb="ff000000"/>
+      </x:rPr>
+      <x:t>로그변환</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
     <x:t>k=10,stand,drop_child,category,-1 _ div365</x:t>
   </x:si>
   <x:si>
-    <x:t>k=10,stand,drop_child,category,minus.csv</x:t>
+    <x:t>k=10,stand,drop_child,category,div365.csv</x:t>
+  </x:si>
+  <x:si>
+    <x:t>occyp_type = fillna('NAN'), get_dummies()</x:t>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand_all,drop_child,-1 _ div365,dupli</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -563,14 +619,8 @@
         <x:sz val="10"/>
         <x:color rgb="ff000000"/>
       </x:rPr>
-      <x:t>로그변환</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>k=10,stand,drop_child,category,div365.csv</x:t>
-  </x:si>
-  <x:si>
-    <x:t>occyp_type = fillna('NAN'), get_dummies()</x:t>
+      <x:t>이상치제거</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -605,56 +655,9 @@
       </x:rPr>
       <x:t>양수</x:t>
     </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">, </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>이상치제거</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve">occyp_type = fillna('NAN'), </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>음수</x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="Arial"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t xml:space="preserve"> -&gt; </x:t>
-    </x:r>
-    <x:r>
-      <x:rPr>
-        <x:rFont val="돋움"/>
-        <x:sz val="10"/>
-        <x:color rgb="ff000000"/>
-      </x:rPr>
-      <x:t>양수</x:t>
-    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>k=10,stand_all,drop_child,,-1 _ div365</x:t>
   </x:si>
   <x:si>
     <x:t>public score</x:t>
@@ -953,7 +956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="16">
+  <x:fonts count="17">
     <x:font>
       <x:name val="Arial"/>
       <x:sz val="10"/>
@@ -1096,6 +1099,26 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
+          <x:name val="한컴바탕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="한컴바탕"/>
+          <x:sz val="10"/>
+          <x:color rgb="ff000000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
           <x:name val="돋움"/>
           <x:sz val="16"/>
           <x:color rgb="ff000000"/>
@@ -1219,7 +1242,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="14">
+  <x:cellXfs count="15">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="bottom"/>
     </x:xf>
@@ -1302,6 +1325,19 @@
     <x:xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle xfId="0" builtinId="0"/>
@@ -1972,10 +2008,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="A1:H34"/>
+  <x:dimension ref="A1:H35"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="E35" activeCellId="0" sqref="E35:E35"/>
+      <x:selection activeCell="C35" activeCellId="0" sqref="C35:C35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.9"/>
@@ -1987,31 +2023,31 @@
   <x:sheetData>
     <x:row r="1" spans="1:8" ht="32.25" customHeight="1">
       <x:c r="A1" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="3" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B1" s="3" t="s">
+      <x:c r="C1" s="3" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="C1" s="3" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="D1" s="3" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E1" s="3" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="H1" s="3" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:8">
       <x:c r="A2" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B2" s="2"/>
       <x:c r="C2" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D2" s="2">
         <x:v>0.73745680000000002</x:v>
@@ -2020,12 +2056,12 @@
         <x:v>0.72961706670000004</x:v>
       </x:c>
       <x:c r="H2" s="5" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8">
       <x:c r="A3" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B3" s="2"/>
       <x:c r="C3" s="2" t="s">
@@ -2036,16 +2072,16 @@
       </x:c>
       <x:c r="E3" s="2"/>
       <x:c r="H3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A4" s="2" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B4" s="2"/>
       <x:c r="C4" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D4" s="2">
         <x:v>1.02</x:v>
@@ -2054,11 +2090,11 @@
     </x:row>
     <x:row r="5" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A5" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B5" s="2"/>
       <x:c r="C5" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="D5" s="2">
         <x:v>0.75585177923104097</x:v>
@@ -2067,7 +2103,7 @@
     </x:row>
     <x:row r="6" spans="1:5">
       <x:c r="A6" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B6" s="2"/>
       <x:c r="C6" s="2" t="s">
@@ -2080,7 +2116,7 @@
     </x:row>
     <x:row r="7" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="2"/>
       <x:c r="C7" s="4" t="s">
@@ -2095,7 +2131,7 @@
     </x:row>
     <x:row r="8" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A8" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>3</x:v>
@@ -2109,10 +2145,10 @@
     </x:row>
     <x:row r="9" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A9" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D9" s="2">
         <x:v>0.75569339999999996</x:v>
@@ -2123,7 +2159,7 @@
     </x:row>
     <x:row r="10" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A10" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
         <x:v>22</x:v>
@@ -2135,10 +2171,10 @@
     </x:row>
     <x:row r="11" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A11" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="D11" s="2"/>
       <x:c r="E11" s="2">
@@ -2147,10 +2183,10 @@
     </x:row>
     <x:row r="12" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A12" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D12" s="2"/>
       <x:c r="E12" s="2">
@@ -2159,7 +2195,7 @@
     </x:row>
     <x:row r="13" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A13" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C13" s="4" t="s">
         <x:v>21</x:v>
@@ -2171,10 +2207,10 @@
     </x:row>
     <x:row r="14" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A14" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C14" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D14" s="2">
         <x:v>0.73779439999999996</x:v>
@@ -2185,10 +2221,10 @@
     </x:row>
     <x:row r="15" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A15" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C15" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D15" s="2">
         <x:v>0.74819999999999998</x:v>
@@ -2197,7 +2233,7 @@
     </x:row>
     <x:row r="16" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A16" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C16" s="4" t="s">
         <x:v>7</x:v>
@@ -2211,10 +2247,10 @@
     </x:row>
     <x:row r="17" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A17" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C17" s="4" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D17" s="2">
         <x:v>0.74008940000000001</x:v>
@@ -2225,7 +2261,7 @@
     </x:row>
     <x:row r="18" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A18" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C18" s="4" t="s">
         <x:v>6</x:v>
@@ -2237,10 +2273,10 @@
     </x:row>
     <x:row r="19" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A19" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C19" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D19" s="2">
         <x:v>0.73997299999999999</x:v>
@@ -2249,7 +2285,7 @@
     </x:row>
     <x:row r="20" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A20" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C20" s="4" t="s">
         <x:v>2</x:v>
@@ -2263,7 +2299,7 @@
     </x:row>
     <x:row r="21" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A21" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C21" s="4" t="s">
         <x:v>1</x:v>
@@ -2277,10 +2313,10 @@
     </x:row>
     <x:row r="22" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A22" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D22" s="2">
         <x:v>0.73570000000000002</x:v>
@@ -2291,10 +2327,10 @@
     </x:row>
     <x:row r="23" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A23" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C23" s="7" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E23" s="6">
         <x:v>0.72818391270000005</x:v>
@@ -2302,7 +2338,7 @@
     </x:row>
     <x:row r="24" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A24" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C24" s="7" t="s">
         <x:v>8</x:v>
@@ -2313,7 +2349,7 @@
     </x:row>
     <x:row r="25" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A25" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
         <x:v>0</x:v>
@@ -2324,10 +2360,10 @@
     </x:row>
     <x:row r="26" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A26" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C26" s="9" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E26" s="6">
         <x:v>0.83365148</x:v>
@@ -2335,10 +2371,10 @@
     </x:row>
     <x:row r="27" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A27" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C27" s="7" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E27" s="6">
         <x:v>0.76477649069999998</x:v>
@@ -2346,10 +2382,10 @@
     </x:row>
     <x:row r="28" spans="1:5" ht="15.75" customHeight="1">
       <x:c r="A28" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C28" s="10" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E28" s="11">
         <x:v>0.72523449510000004</x:v>
@@ -2357,7 +2393,7 @@
     </x:row>
     <x:row r="29" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C29" s="10" t="s">
-        <x:v>17</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E29" s="11">
         <x:v>0.73242001030000004</x:v>
@@ -2365,7 +2401,7 @@
     </x:row>
     <x:row r="30" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C30" s="10" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E30" s="12">
         <x:v>0.72509021630000003</x:v>
@@ -2373,7 +2409,7 @@
     </x:row>
     <x:row r="32" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C32" s="10" t="s">
-        <x:v>11</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E32" s="12">
         <x:v>0.72599566329999998</x:v>
@@ -2381,7 +2417,7 @@
     </x:row>
     <x:row r="33" spans="3:5" ht="15.75" customHeight="1">
       <x:c r="C33" s="10" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E33" s="12">
         <x:v>0.72496076870000004</x:v>
@@ -2389,10 +2425,18 @@
     </x:row>
     <x:row r="34" spans="3:5" ht="14.449999999999999">
       <x:c r="C34" s="13" t="s">
-        <x:v>4</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E34">
         <x:v>0.91203400000000001</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="3:5" ht="14.449999999999999">
+      <x:c r="C35" s="13" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="E35" s="14">
+        <x:v>0.75713034310000005</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -1113,13 +1113,16 @@
   <si>
     <t xml:space="preserve">k=10,stand,drop_child,category,-1 _ div365,credit_dup </t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=12,stand,drop_child,category,-1 _ div365</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1215,6 +1218,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808388"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1264,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1295,6 +1304,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1511,10 +1521,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -1895,6 +1905,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
@@ -1903,6 +1916,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C30" s="10" t="s">
         <v>18</v>
       </c>
@@ -1910,7 +1926,15 @@
         <v>0.72509021630000003</v>
       </c>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C32" s="10" t="s">
         <v>23</v>
       </c>
@@ -1918,7 +1942,10 @@
         <v>0.72599566329999998</v>
       </c>
     </row>
-    <row r="33" spans="3:5" ht="15.75" customHeight="1">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C33" s="10" t="s">
         <v>17</v>
       </c>
@@ -1926,7 +1953,10 @@
         <v>0.72496076870000004</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="14.25">
+    <row r="34" spans="1:5" ht="14.25">
+      <c r="A34" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C34" s="13" t="s">
         <v>20</v>
       </c>
@@ -1934,7 +1964,10 @@
         <v>0.91203400000000001</v>
       </c>
     </row>
-    <row r="35" spans="3:5" ht="14.25">
+    <row r="35" spans="1:5" ht="14.25">
+      <c r="A35" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C35" s="13" t="s">
         <v>4</v>
       </c>
@@ -1942,9 +1975,26 @@
         <v>0.75713034310000005</v>
       </c>
     </row>
-    <row r="36" spans="3:5" ht="15">
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C36" s="15" t="s">
         <v>43</v>
+      </c>
+      <c r="E36" s="16">
+        <v>0.7325829425</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="16">
+        <v>0.74065834870000002</v>
       </c>
     </row>
   </sheetData>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <r>
       <rPr>
@@ -1112,17 +1112,21 @@
   </si>
   <si>
     <t xml:space="preserve">k=10,stand,drop_child,category,-1 _ div365,credit_dup </t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>k=12,stand,drop_child,category,-1 _ div365</t>
+  </si>
+  <si>
+    <t>Randomforest</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1137,53 +1141,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808388"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF808388"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="한컴바탕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="한컴바탕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="한컴바탕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="한컴바탕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="한컴바탕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -1207,39 +1164,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF002648"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808388"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1247,64 +1186,19 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFD8D8D8"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD8D8D8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1521,20 +1415,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H20:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1">
+    <row r="1" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -1554,7 +1448,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -1568,11 +1462,11 @@
       <c r="E2" s="2">
         <v>0.72961706670000004</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1588,7 +1482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -1601,7 +1495,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -1614,7 +1508,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
@@ -1627,12 +1521,12 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="2">
@@ -1642,11 +1536,12 @@
         <v>0.81738888659999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2">
@@ -1656,11 +1551,12 @@
         <v>0.80922620690000002</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="2">
@@ -1670,11 +1566,12 @@
         <v>0.74876339940000003</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="2"/>
@@ -1682,11 +1579,12 @@
         <v>0.72947115399999995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2"/>
@@ -1694,11 +1592,12 @@
         <v>0.73055071829999996</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="2"/>
@@ -1706,11 +1605,12 @@
         <v>0.72994765790000005</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="2"/>
@@ -1718,11 +1618,12 @@
         <v>0.76804756370000005</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="4" t="s">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2">
@@ -1732,11 +1633,12 @@
         <v>0.7287727906</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2">
@@ -1744,11 +1646,12 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2">
@@ -1758,11 +1661,12 @@
         <v>0.73165386430000001</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4" t="s">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="2">
@@ -1772,11 +1676,12 @@
         <v>0.73068475369999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4" t="s">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2"/>
@@ -1784,11 +1689,12 @@
         <v>0.73217406169999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="2">
@@ -1796,11 +1702,12 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="4" t="s">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="2">
@@ -1810,195 +1717,240 @@
         <v>0.73761968249999998</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="4" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D21" s="2">
         <v>0.73570000000000002</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="2">
         <v>0.72804386619999995</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="4" t="s">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="2">
         <v>0.73570000000000002</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="2">
         <v>0.72804386619999995</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="7" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="6">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>0.72818391270000005</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="7" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="8">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
         <v>0.72655655649999995</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="7" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="6">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
         <v>0.92064821480000003</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9" t="s">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="6">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2">
         <v>0.83365148</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="7" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="6">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
         <v>0.76477649069999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="11">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
         <v>0.72523449510000004</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="11">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
         <v>0.73242001030000004</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="12">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
         <v>0.72509021630000003</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="12">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
         <v>0.72599566329999998</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="12">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>0.72496076870000004</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E34">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2">
         <v>0.91203400000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="14">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2">
         <v>0.75713034310000005</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="16">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2">
         <v>0.7325829425</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C37" t="s">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="16">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2">
         <v>0.74065834870000002</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38">
+        <v>0.75231999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="53">
   <si>
     <r>
       <rPr>
@@ -382,9 +382,6 @@
   </si>
   <si>
     <t>k=10,stand,drop_child,category,minus.csv</t>
-  </si>
-  <si>
-    <t>k=10,stand,drop_child,category,-1 _ div365</t>
   </si>
   <si>
     <t>k=9,stand,drop_child,category,-1 _ div365,randomforest</t>
@@ -1114,9 +1111,6 @@
     <t>LGBM</t>
   </si>
   <si>
-    <t>변수</t>
-  </si>
-  <si>
     <t>전처리</t>
   </si>
   <si>
@@ -1146,6 +1140,92 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> + 1,0encoding</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>minus, stand, div365, category , k = 5</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>F + xgb + lgbm</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F + xgb</t>
+    </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808388"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808388"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808388"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제출</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808388"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF808388"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>물</t>
     </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1154,7 +1234,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1217,13 +1297,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808388"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1244,10 +1359,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1264,8 +1382,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="보통" xfId="1" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1480,445 +1602,445 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F43" sqref="F42:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="5"/>
+    <col min="4" max="4" width="19" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" customHeight="1">
+    <row r="1" spans="1:6" ht="32.25" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.73745680000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.72961706670000004</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.73881259999999904</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.73745680000000002</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0.72961706670000004</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.75585177923104097</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.73881259999999904</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="H3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.75585177923104097</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="2">
         <v>0.75626472839575498</v>
       </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C7" s="2">
+        <v>0.73735260000000002</v>
+      </c>
       <c r="D7" s="2">
-        <v>0.73735260000000002</v>
-      </c>
-      <c r="E7" s="2">
         <v>0.81738888659999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C8" s="2">
+        <v>0.73205500000000001</v>
+      </c>
       <c r="D8" s="2">
-        <v>0.73205500000000001</v>
-      </c>
-      <c r="E8" s="2">
         <v>0.80922620690000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="2">
+        <v>0.75569339999999996</v>
+      </c>
       <c r="D9" s="2">
-        <v>0.75569339999999996</v>
-      </c>
-      <c r="E9" s="2">
         <v>0.74876339940000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>0.72947115399999995</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>0.73055071829999996</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2">
+        <v>0.72994765790000005</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
+        <v>0.76804756370000005</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
-        <v>0.72947115399999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2">
-        <v>0.73055071829999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2">
-        <v>0.72994765790000005</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2">
-        <v>0.76804756370000005</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2" t="s">
-        <v>28</v>
+      <c r="C14" s="2">
+        <v>0.73779439999999996</v>
       </c>
       <c r="D14" s="2">
-        <v>0.73779439999999996</v>
-      </c>
-      <c r="E14" s="2">
         <v>0.7287727906</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.74819999999999998</v>
       </c>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C16" s="2">
+        <v>0.74121720000000002</v>
+      </c>
       <c r="D16" s="2">
-        <v>0.74121720000000002</v>
-      </c>
-      <c r="E16" s="2">
         <v>0.73165386430000001</v>
       </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.74008940000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>0.74008940000000001</v>
-      </c>
-      <c r="E17" s="2">
         <v>0.73068475369999997</v>
       </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
         <v>0.73217406169999999</v>
       </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="2">
+        <v>40</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.73997299999999999</v>
       </c>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C20" s="2">
+        <v>0.74199999999999999</v>
+      </c>
       <c r="D20" s="2">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E20" s="2">
         <v>0.73761968249999998</v>
       </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="C21" s="2">
+        <v>0.73570000000000002</v>
+      </c>
       <c r="D21" s="2">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="E21" s="2">
         <v>0.72804386619999995</v>
       </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.73570000000000002</v>
       </c>
       <c r="D22" s="2">
-        <v>0.73570000000000002</v>
-      </c>
-      <c r="E22" s="2">
         <v>0.72804386619999995</v>
       </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
+        <v>40</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
         <v>0.72818391270000005</v>
       </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
         <v>0.72655655649999995</v>
       </c>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
         <v>0.92064821480000003</v>
       </c>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
         <v>0.83365148</v>
       </c>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
         <v>0.76477649069999998</v>
       </c>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
+        <v>34</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
         <v>0.72523449510000004</v>
       </c>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
         <v>0.73242001030000004</v>
       </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
+      <c r="C30" s="2"/>
+      <c r="D30" s="2">
         <v>0.72509021630000003</v>
       </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1927,142 +2049,168 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2">
         <v>0.72599566329999998</v>
       </c>
+      <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2">
+        <v>34</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2">
         <v>0.72496076870000004</v>
       </c>
+      <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2">
         <v>0.91203400000000001</v>
       </c>
+      <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2">
         <v>0.75713034310000005</v>
       </c>
+      <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2">
+      <c r="C36" s="2"/>
+      <c r="D36" s="2">
         <v>0.7325829425</v>
       </c>
+      <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2">
         <v>0.74065834870000002</v>
       </c>
+      <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="7">
+      <c r="D38" s="7">
         <v>0.75756272140000003</v>
       </c>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="6">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="6">
         <v>0.72472878249999995</v>
       </c>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="8">
+      <c r="D40" s="8">
         <v>0.72856551390000002</v>
       </c>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5">
+        <v>46</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D41" s="5">
         <v>0.70299999999999996</v>
       </c>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="8">
+        <v>10.036968420399999</v>
+      </c>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" ht="20.25">
+      <c r="A43" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12">
+        <v>0.70007282329999998</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="8">
-        <v>10.036968420399999</v>
-      </c>
+      <c r="B44" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0.70428485380000005</v>
+      </c>
+      <c r="E44" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
+++ b/신용카드 사용자 연체 예측 AI 경진대회/파라미터 로그 관리.xlsx
@@ -1182,7 +1182,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF808388"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1192,7 +1192,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF808388"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1201,7 +1201,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF808388"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1211,7 +1211,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF808388"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1220,7 +1220,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF808388"/>
+        <color rgb="FF000000"/>
         <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1321,11 +1321,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF808388"/>
-      <name val="돋움"/>
+      <sz val="11"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
       <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1365,7 +1364,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1385,6 +1384,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="보통" xfId="1" builtinId="28"/>
@@ -1604,8 +1606,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F43" sqref="F42:F43"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -2132,7 +2134,7 @@
       <c r="B38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="2">
         <v>0.75756272140000003</v>
       </c>
       <c r="E38" s="7"/>
@@ -2144,7 +2146,7 @@
       <c r="B39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="2">
         <v>0.72472878249999995</v>
       </c>
       <c r="E39" s="6"/>
@@ -2156,19 +2158,22 @@
       <c r="B40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="2">
         <v>0.72856551390000002</v>
       </c>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" ht="15">
       <c r="A41" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="5">
+      <c r="C41" s="13">
+        <v>0.71260000000000001</v>
+      </c>
+      <c r="D41" s="2">
         <v>0.70299999999999996</v>
       </c>
       <c r="E41" s="5"/>
@@ -2180,7 +2185,7 @@
       <c r="B42" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="2">
         <v>10.036968420399999</v>
       </c>
       <c r="E42" s="8"/>
@@ -2196,7 +2201,7 @@
       <c r="D43" s="12">
         <v>0.70007282329999998</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2207,7 +2212,7 @@
       <c r="B44" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="2">
         <v>0.70428485380000005</v>
       </c>
       <c r="E44" s="8"/>
